--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemthongtintaikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemthongtintaikhoan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3706257-9ADF-4DC0-B888-39DDE6D69C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736537E2-11EC-446A-BBB0-664DDF139A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>Author</t>
   </si>
@@ -230,9 +230,6 @@
     <t xml:space="preserve">Trịnh như Phương </t>
   </si>
   <si>
-    <t>'hiện thị tên nhân sự  theo thứ tự 1-A-Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiển thỉ giao diện trang chủ </t>
   </si>
   <si>
@@ -248,12 +245,6 @@
     <t xml:space="preserve">Xem thông tin tài khoản </t>
   </si>
   <si>
-    <t>Hiển thị danh sách các tài khoản  trong công ty .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiện thị tài khoản theo thứ tự 1-A-Z của tên đăng nhập </t>
-  </si>
-  <si>
     <t xml:space="preserve">hiển thị hình ảnh nhân viên đúng kích cỡ quy định </t>
   </si>
   <si>
@@ -276,124 +267,97 @@
   </si>
   <si>
     <t>TC-BDS-XTTTK-2</t>
+  </si>
+  <si>
+    <t>Ở trang chủ , nhấn chọn mục  " Quản lý thông tin "</t>
+  </si>
+  <si>
+    <t>TC-BDS-XTTTK-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra 'hiển thị các button Thêm , Xóa , Ẩn tài khoản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách các tài khoản bao gồm các nút button thêm , sửa , ẩn </t>
+  </si>
+  <si>
+    <t>TC-BDS-XTTTK-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra ''hiển thị hình ảnh nhân viên đúng kích cỡ quy định </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị hình ảnh nhân viên đúng kích cỡ quy định  </t>
+  </si>
+  <si>
+    <t>Test Cases for ''Xem thông tin tài khoản   "</t>
+  </si>
+  <si>
+    <t>Adminđăng nhập vào WebAdmin bất Động sản bằng tài khoản admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách các tài khoản  trong công ty bao gồm : hình ảnh , Mã nhân viên , Tên , SDT , Email , chức vụ </t>
+  </si>
+  <si>
+    <t>hiện thị tài khoản theo thứ tự A-Z của mã nhân viên</t>
+  </si>
+  <si>
+    <t>Kiểm tra 'Hiển thị danh sách các tài khoản  trong công ty .</t>
+  </si>
+  <si>
+    <t>Kiểm tra 'hiện thị theo thứ tự A-Z của mã nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
   </si>
   <si>
     <t xml:space="preserve">có thông tin bao gồm  : 
 - hình ảnh 
+- mã nhân viên : A123
 -tên đăng nhập :Trương Quang A
-- mật khẩu :********
 - SDT : 0235464646
 - Email : truongquang@gmail.com
-- Ngày sinh : 04/08/1998
--Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000
+-Ngày sinh :04/08/1998
+-Nhóm: 2
+-Địa chỉ : 48 phạm hùng 
+-Phòng ban : kinh doanh 
 - Trạng thái : ẩn 
 - Button </t>
   </si>
   <si>
-    <t>Ở trang chủ , nhấn chọn mục  " Quản lý thông tin "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiển thị danh sách tài khoản bao gồm : 
-- hình ảnh 
+    <t xml:space="preserve">Hiển thị danh sách các tài khoản  trong công ty .'
+có thông tin bao gồm  : 
+ hình ảnh 
+- mã nhân viên : A123
 -tên đăng nhập :Trương Quang A
-- mật khẩu :********
 - SDT : 0235464646
 - Email : truongquang@gmail.com
-- Ngày sinh : 04/08/1998
--Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000
+-Ngày sinh :04/08/1998
+-Nhóm: 2
+-Địa chỉ : 48 phạm hùng 
+-Phòng ban : kinh doanh 
 - Trạng thái : ẩn 
 - Button </t>
   </si>
   <si>
-    <t>hiển thị danh sách tài khoản theo thứ tự bao gồm : 
+    <t xml:space="preserve">hiển thị danh sách tài khoản theo thứ tự bao gồm : 
 - hình ảnh 
+- mã nhân viên : A123
 -tên đăng nhập :Trương Quang A
-- mật khẩu :********
 - SDT : 0235464646
 - Email : truongquang@gmail.com
-- Ngày sinh : 04/08/1998
--Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000
+-Ngày sinh :04/08/1998
+-Nhóm: 2
+-Địa chỉ : 48 phạm hùng 
+-Phòng ban : kinh doanh 
 - Trạng thái : ẩn 
-- Button 
--tên đăng nhập :Trương Quang B
-- mật khẩu :********
-- SDT : 0235464646</t>
-  </si>
-  <si>
-    <t>có thông tin bao gồm  : 
-- hình ảnh 
--tên đăng nhập :Trương Quang A
-- mật khẩu :********
-- SDT : 0235464646
-- Email : truongquang@gmail.com
-- Ngày sinh : 04/08/1998
--Địa chỉ : 38 lê quý dôn 
-- chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000
-- Trạng thái : ẩn 
-- Button 
-- hình ảnh 
--tên đăng nhập :Trương Quang B
-- mật khẩu :********
-- SDT : 0235464646
-.....</t>
-  </si>
-  <si>
-    <t>TC-BDS-XTTTK-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra 'hiển thị các button Thêm , Xóa , Ẩn tài khoản </t>
-  </si>
-  <si>
-    <t>có thông tin bao gồm  : 
-- hình ảnh 
--tên đăng nhập :Trương Quang A
-- mật khẩu :********
-- SDT : 0235464646
-- Email : truongquang@gmail.com
-- Ngày sinh : 04/08/1998
--Địa chỉ : 38 lê quý dôn 
-- chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000
-- Trạng thái : ẩn 
-- Button : Sửa , Ẩn 
-- hình ảnh 
--tên đăng nhập :Trương Quang B
-- mật khẩu :********
-- SDT : 0235464646
-.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị danh sách các tài khoản bao gồm các nút button thêm , sửa , ẩn </t>
-  </si>
-  <si>
-    <t>TC-BDS-XTTTK-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra ''hiển thị hình ảnh nhân viên đúng kích cỡ quy định </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiển thị hình ảnh nhân viên đúng kích cỡ quy định  </t>
-  </si>
-  <si>
-    <t>Test Cases for ''Xem thông tin tài khoản   "</t>
-  </si>
-  <si>
-    <t>Adminđăng nhập vào WebAdmin bất Động sản bằng tài khoản admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+- Button </t>
   </si>
 </sst>
 </file>
@@ -403,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +483,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.79998168889431442"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -546,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1010,11 +980,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1150,6 +1133,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,6 +1244,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,11 +1274,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,8 +1615,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1624,31 +1631,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1682,7 +1689,9 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>43896</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>55</v>
       </c>
@@ -1721,21 +1730,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1744,40 +1753,40 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1818,8 +1827,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1836,80 +1845,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="75"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="F2" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="79"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66">
         <v>43834</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -1937,18 +1946,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
@@ -1959,18 +1968,18 @@
       <c r="G9" s="33"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>2</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>35</v>
@@ -1986,13 +1995,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>35</v>
@@ -2008,13 +2017,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>35</v>
@@ -2072,11 +2081,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2093,26 +2102,26 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2138,205 +2147,212 @@
       <c r="I3" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="J3" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-    </row>
-    <row r="5" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86">
         <v>21</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>72</v>
+      <c r="B5" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>84</v>
       </c>
       <c r="F5" s="46">
         <v>1</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="40" customFormat="1" ht="185.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="J5" s="84"/>
+    </row>
+    <row r="6" spans="1:10" s="40" customFormat="1" ht="185.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="46">
         <v>2</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="42"/>
-      <c r="I6" s="42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82">
+      <c r="I6" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="86">
         <v>21</v>
       </c>
-      <c r="B7" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>76</v>
+      <c r="B7" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>84</v>
       </c>
       <c r="F7" s="46">
         <v>1</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="40" customFormat="1" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="J7" s="84"/>
+    </row>
+    <row r="8" spans="1:10" s="40" customFormat="1" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="46">
         <v>2</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H8" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82">
+      <c r="J8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="86">
         <v>21</v>
       </c>
-      <c r="B9" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>79</v>
+      <c r="B9" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>84</v>
       </c>
       <c r="F9" s="46">
         <v>1</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="40" customFormat="1" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="J9" s="84"/>
+    </row>
+    <row r="10" spans="1:10" s="40" customFormat="1" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="87"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="41">
         <v>2</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82">
+        <v>72</v>
+      </c>
+      <c r="J10" s="85"/>
+    </row>
+    <row r="11" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="86">
         <v>21</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>79</v>
+      <c r="B11" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>84</v>
       </c>
       <c r="F11" s="46">
         <v>1</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="40" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="J11" s="84"/>
+    </row>
+    <row r="12" spans="1:10" s="40" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="41">
         <v>2</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>83</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J12" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
+  <mergeCells count="26">
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A7:A8"/>
@@ -2349,11 +2365,20 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemthongtintaikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemthongtintaikhoan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736537E2-11EC-446A-BBB0-664DDF139A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBB012-51B3-4964-B980-F379DE49EC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>Author</t>
   </si>
@@ -233,9 +233,6 @@
     <t xml:space="preserve">Hiển thỉ giao diện trang chủ </t>
   </si>
   <si>
-    <t>Ở trang chủ , nhấn chọn mục  " Thông tin"</t>
-  </si>
-  <si>
     <t>Quản lý công ty Bất động Sản</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t xml:space="preserve">hiển thị hình ảnh nhân viên đúng kích cỡ quy định </t>
   </si>
   <si>
-    <t xml:space="preserve">hiển thị các button Thêm , Xóa , Ẩn tài khoản </t>
-  </si>
-  <si>
     <t>TR-BDS-XTTTK-1</t>
   </si>
   <si>
@@ -275,12 +269,6 @@
     <t>TC-BDS-XTTTK-3</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra 'hiển thị các button Thêm , Xóa , Ẩn tài khoản </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị danh sách các tài khoản bao gồm các nút button thêm , sửa , ẩn </t>
-  </si>
-  <si>
     <t>TC-BDS-XTTTK-4</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị danh sách các tài khoản  trong công ty bao gồm : hình ảnh , Mã nhân viên , Tên , SDT , Email , chức vụ </t>
   </si>
   <si>
     <t>hiện thị tài khoản theo thứ tự A-Z của mã nhân viên</t>
@@ -345,10 +330,13 @@
 - Button </t>
   </si>
   <si>
-    <t xml:space="preserve">hiển thị danh sách tài khoản theo thứ tự bao gồm : 
+    <t xml:space="preserve">Hiển thị danh sách các tài khoản  trong công ty bao gồm : hình ảnh , Mã nhân viên , Tên , SDT , Email , chức vụ , trạng thái , ngày sinh , phòng , nhóm , Button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">có thông tin bao gồm  : 
 - hình ảnh 
 - mã nhân viên : A123
--tên đăng nhập :Trương Quang A
+-tên  :Trương Quang A
 - SDT : 0235464646
 - Email : truongquang@gmail.com
 - chức vụ : nhân viên 
@@ -358,6 +346,57 @@
 -Phòng ban : kinh doanh 
 - Trạng thái : ẩn 
 - Button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị danh sách tài khoản theo thứ tự bao gồm : 
+- hình ảnh 
+- mã nhân viên : A123
+-tên  :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- chức vụ : nhân viên 
+-Ngày sinh :04/08/1998
+-Nhóm: 2
+-Địa chỉ : 48 phạm hùng 
+-Phòng ban : kinh doanh 
+- Trạng thái : ẩn 
+- Button </t>
+  </si>
+  <si>
+    <t>Hiển thị ô vuông tick để người dùng nhấn chọn tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong Dropbox " quản lý tài khoản " nhấn chọn tài khoản </t>
+  </si>
+  <si>
+    <t>TR-BDS-XTTTK-5</t>
+  </si>
+  <si>
+    <t>TC-BDS-XTTTK-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra 'Hiển thị ô vuông tick để người dùng nhấn chọn tài khoảnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn vào ô vuông tick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị dấu tích ở tài khoản được chọn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị các button Thêm, Khóa , BẬt  phía trên danh sách tài khoản và nút sửa ở cuối danh sách tài khoản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm 'hiển thị các button Thêm, Khóa , BẬt  phía trên danh sách tài khoản và nút sửa ở cuối danh sách tài khoản  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị các button Thêm, Khóa , Kích hoạt   phía trên danh sách tài khoản và nút "sửa" ở cuối danh sách tài khoản </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1139,6 +1178,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,27 +1223,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1244,10 +1283,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,10 +1319,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,6 +1330,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,7 +1658,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1631,31 +1673,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1703,7 +1745,9 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>43962</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
@@ -1730,21 +1774,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1753,54 +1797,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="53"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1825,10 +1869,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1862,14 +1906,14 @@
       </c>
       <c r="B2" s="73"/>
       <c r="C2" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="76"/>
       <c r="H2" s="77"/>
@@ -1946,24 +1990,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="17"/>
@@ -1973,13 +2017,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>35</v>
@@ -1990,18 +2034,18 @@
       <c r="G10" s="33"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>3</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>35</v>
@@ -2012,18 +2056,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>35</v>
@@ -2033,6 +2077,48 @@
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>4</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>4</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2058,19 +2144,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E12</xm:sqref>
+          <xm:sqref>E9:E14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G12</xm:sqref>
+          <xm:sqref>G9:G14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C345C894-9E54-44FF-8227-82A9A55946F3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F12</xm:sqref>
+          <xm:sqref>F9:F14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2081,10 +2167,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2103,17 +2189,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="A1" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2148,21 +2234,21 @@
         <v>4</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2170,28 +2256,30 @@
         <v>21</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="46">
         <v>1</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="96" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="185.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
@@ -2203,41 +2291,43 @@
         <v>2</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="85"/>
+        <v>80</v>
+      </c>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86">
         <v>21</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="94" t="s">
         <v>82</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>84</v>
       </c>
       <c r="F7" s="46">
         <v>1</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="84"/>
+      <c r="J7" s="96" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="40" customFormat="1" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
@@ -2249,43 +2339,45 @@
         <v>2</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="85"/>
+        <v>83</v>
+      </c>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="86">
         <v>21</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F9" s="46">
         <v>1</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="84"/>
+      <c r="J9" s="96" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
@@ -2297,43 +2389,45 @@
         <v>2</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H10" s="42"/>
-      <c r="I10" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="85"/>
+      <c r="I10" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86">
         <v>21</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D11" s="98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" s="46">
         <v>1</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="84"/>
-    </row>
-    <row r="12" spans="1:10" s="40" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="40" customFormat="1" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="89"/>
       <c r="C12" s="91"/>
@@ -2343,28 +2437,88 @@
         <v>2</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="85"/>
+        <v>71</v>
+      </c>
+      <c r="J12" s="97"/>
+    </row>
+    <row r="13" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="86">
+        <v>21</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="46">
+        <v>1</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="40" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="87"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="41">
+        <v>2</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="100"/>
+    </row>
+    <row r="15" spans="1:10" s="40" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="41">
+        <v>3</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+  <mergeCells count="32">
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
@@ -2379,6 +2533,18 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
